--- a/data/2024-07-CSV/column_map.xlsx
+++ b/data/2024-07-CSV/column_map.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psyc/Downloads/2024-07-CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86384204-6B80-9A42-919E-CFBCF4FFACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A83DA8-785A-1146-A56A-C00FA6F337FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{F440BF37-DC75-994C-8DD2-6315E2DB5A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +68,6 @@
     <t>EDUC:{0:'0 to 8 years',1:'Some high school',2:'High school graduate',3:'Some postsecondary',4:'Postsecondary certificate or diploma',5:'Bachelor's degree',6:'Above bachelor's degree'}</t>
   </si>
   <si>
-    <t>MJH:{1:'Single jobholder, including job changers',2:'Multiple jobholder',blank:'Not applicable',EVERWORK:,1:'Yes, within last year',2:'Yes, more than 1 year ago',3:'No, never worked',blank:'Not applicable'}</t>
-  </si>
-  <si>
     <t>EVERWORK:{1:'Yes, within last year',2:'Yes, more than 1 year ago',3:'No, never worked'}</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>FTPTLAST:{1:'Full-time (30 hours or more)',2:'Part-time (1 to 29 hours)'}</t>
+  </si>
+  <si>
+    <t>MJH:{1:'Single jobholder, including job changers',2:'Multiple jobholder'}</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,132 +555,132 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/2024-07-CSV/column_map.xlsx
+++ b/data/2024-07-CSV/column_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psyc/Downloads/2024-07-CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A83DA8-785A-1146-A56A-C00FA6F337FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FA8CEE-5D23-634D-8493-3E3C3C3A0658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{F440BF37-DC75-994C-8DD2-6315E2DB5A1B}"/>
   </bookViews>
@@ -41,109 +41,109 @@
     <t>Column mappings</t>
   </si>
   <si>
-    <t>SURVMNTH:{1:'January',2:'February',3:'March',4:'April',5:'May',6:'June',7:'July',8:'August',9:'September',10:'October',11:'November',12:'December'}</t>
-  </si>
-  <si>
-    <t>LFSSTAT:{1:'Employed, at work',2:'Employed, absent from work',3:'Unemployed',4:'Not in labour force'}</t>
-  </si>
-  <si>
-    <t>PROV:{10:'Newfoundland and Labrador',11:'Prince Edward Island',12:'Nova Scotia',13:'New Brunswick',24:'Quebec',35:'Ontario',46:'Manitoba',47:'Saskatchewan',48:'Alberta',59:'British Columbia'}</t>
-  </si>
-  <si>
-    <t>CMA:{1:'QuÈbec',2:'MontrÈal',3:'OttawañGatineau (Ontario part)',4:'Toronto',5:'Hamilton',6:'Winnipeg',7:'Calgary',8:'Edmonton',9:'Vancouver',0:'Other CMA or non-CMA'}</t>
-  </si>
-  <si>
-    <t>AGE_12:{1:'15 to 19 years',2:'20 to 24 years',3:'25 to 29 years',4:'30 to 34 years',5:'35 to 39 years',6:'40 to 44 years',7:'45 to 49 years',8:'50 to 54 years',9:'55 to 59 years',10:'60 to 64 years',11:'65 to 69 years',12:'70 and over'}</t>
-  </si>
-  <si>
-    <t>AGE_6:{1:'15 to 16 years',2:'17 to 19 years',3:'20 to 21 years',4:'22 to 24 years',5:'25 to 26 years',6:'27 to 29 years',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>SEX:{1:'Male',2:'Female'}</t>
-  </si>
-  <si>
-    <t>MARSTAT:{1:'Married',2:'Living in common-law',3:'Widowed',4:'Separated',5:'Divorced',6:'Single, never married'}</t>
-  </si>
-  <si>
-    <t>EDUC:{0:'0 to 8 years',1:'Some high school',2:'High school graduate',3:'Some postsecondary',4:'Postsecondary certificate or diploma',5:'Bachelor's degree',6:'Above bachelor's degree'}</t>
-  </si>
-  <si>
-    <t>EVERWORK:{1:'Yes, within last year',2:'Yes, more than 1 year ago',3:'No, never worked'}</t>
-  </si>
-  <si>
-    <t>COWMAIN:{1:'Public sector employees',2:'Private sector employees',3:'Self-employed incorporated, with paid help',4:'Self-employed incorporated, no paid help',5:'Self-employed unincorporated, with paid help',6:'Self-employed unincorporated, no paid help',7:'Unpaid family worker'}</t>
-  </si>
-  <si>
-    <t>IMMIG:{1:'Immigrant, landed 10 or less years earlier',2:'Immigrant, landed more than 10 years earlier',3:'Non-immigrant'}</t>
-  </si>
-  <si>
-    <t>NAICS_21:{1:'Agriculture',2:'Forestry and logging and support activities for forestry',3:'Fishing, hunting and trapping',4:'Mining, quarrying, and oil and gas extraction',5:'Utilities',6:'Construction',7:'Manufacturing - durable goods',8:'Manufacturing - non-durable goods',9:'Wholesale trade',10:'Retail trade',11:'Transportation and warehousing',12:'Finance and insurance',13:'Real estate and rental and leasing',14:'Professional, scientific and technical services',15:'Business, building and other support services',16:'Educational services',17:'Health care and social assistance',18:'Information, culture and recreation',19:'Accommodation and food services',20:'Other services (except public administration)',21:'Public administration',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>NOC_10:{1:'Management occupations',2:'Business, finance and administration occupations, except management',3:'Natural and applied sciences and related occupations, except management',4:'Health occupations, except management',5:'Occupations in education, law and social, community and government services, except management',6:'Occupations in art, culture, recreation and sport, except management',7:'Sales and service occupations, except management',8:'Trades, transport and equipment operators and related occupations, except management',9:'Natural resources, agriculture and related production occupations, except management',10:'Occupations in manufacturing and utilities, except management',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>NOC_43:{1:'Legislative and senior management occupations',2:'Specialized middle management occupations',3:'Middle management occupations in retail and wholesale trade and customer services',4:'Middle management occupations in trades, transportation, production and utilities',5:'Professional occupations in finance',6:'Professional occupations in business',7:'Administrative and financial supervisors and specialized administrative occupations',8:'Administrative occupations and transportation logistics occupations',9:'Administrative and financial support and supply chain logistics occupations',10:'Professional occupations in natural sciences',11:'Professional occupations in applied sciences (except engineering)',12:'Professional occupations in engineering',13:'Technical occupations related to natural and applied sciences',14:'Health treating and consultation services professionals',15:'Therapy and assessment professionals',16:'Nursing and allied health professionals',17:'Technical occupations in health',18:'Assisting occupations in support of health services',19:'Professional occupations in law',20:'Professional occupations in education services',21:'Professional occupations in social and community services',22:'Professional occupations in government services',23:'Occupations in front-line public protection services',24:'Paraprofessional occupations in legal, social, community and education services',25:'Assisting occupations in education and in legal and public protection',26:'Care providers and public protection support occupations and student monitors, crossing guards and related occupations',27:'Professional occupations in art and culture',28:'Technical occupations in art, culture and sport',29:'Occupations in art, culture and sport',30:'Support occupations in art, culture and sport',31:'Retail sales and service supervisors and specialized occupations in sales and services',32:'Occupations in sales and services',33:'Sales and service representatives and other customer and personal services occupations',34:'Sales and service support occupations',35:'Technical trades and transportation officers and controllers',36:'General trades',37:'Mail and message distribution, other transport equipment operators and related maintenance workers',38:'Helpers and labourers and other transport drivers, operators and labourers',39:'Supervisors and occupations in natural resources, agriculture and related production',40:'Workers and labourers in natural resources, agriculture and related production',41:'Supervisors, central control and process operators in processing, manufacturing and utilities and aircraft assemblers and inspectors',42:'Machine operators, assemblers and inspectors in processing, manufacturing and printing',43:'Labourers in processing, manufacturing and utilities',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>YABSENT:{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>PAYAWAY:{1:'Yes',2:'No'}</t>
-  </si>
-  <si>
-    <t>FTPTMAIN:{1:'Full-time',2:'Part-time'}</t>
-  </si>
-  <si>
-    <t>YAWAY:{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation or civic holiday',4:'Working short-time'}</t>
-  </si>
-  <si>
-    <t>WHYPT:{0:'Other reasons',1:'Own illness or disability',2:'Caring for children',3:'Other personal or family responsibilities',4:'Going to school',5:'Personal preference',6:'Business conditions or could not find full-time work, looked for full-time work in last month',7:'Business conditions or could not find full-time work, did not look for full-time work in last month'}</t>
-  </si>
-  <si>
-    <t>UNION:{1:'Union member',2:'Not a member but covered by a union contract or collective agreement',3:'Non-unionized'}</t>
-  </si>
-  <si>
-    <t>PERMTEMP:{1:'Permanent',2:'Temporary, seasonal job',3:'Temporary, term or contract job',4:'Temporary, casual or other temporary jobs'}</t>
-  </si>
-  <si>
-    <t>ESTSIZE:{1:'Less than 20 employees',2:'20 to 99 employees',3:'100 to 500 employees',4:'More than 500 employees'}</t>
-  </si>
-  <si>
-    <t>FIRMSIZE:{1:'Less than 20 employees',2:'20 to 99 employees',3:'100 to 500 employees',4:'More than 500 employees'}</t>
-  </si>
-  <si>
-    <t>FLOWUNEM:{1:'Job losers, temporary layoff',2:'Job losers, permanent layoff',3:'Job leavers',4:'Job leavers/losers (status unknown), worked more than 1 year ago ',5:'New entrants',6:'Re-entrants, worked 1 year ago or less',7:'Re-entrants, worked more than 1 year ago',8:'Future starts'}</t>
-  </si>
-  <si>
-    <t>UNEMFTPT:{1:'Full-time',2:'Part-time',3:'Future starts'}</t>
-  </si>
-  <si>
-    <t>WHYLEFTO:{0:'Job leavers, other reasons',1:'Job leavers, own illness or disability',2:'Job leavers, personal or family responsibilities',3:'Job leavers, going to school',4:'Job losers, laid off',5:'Job leavers, retired'}</t>
-  </si>
-  <si>
-    <t>WHYLEFTN:{0:'Job leavers, other reasons',1:'Job leavers, own illness or disability',2:'Job leavers, caring for children',3:'Job leavers, pregnancy',4:'Job leavers, personal or family responsibilities',5:'Job leavers, going to school',6:'Job leavers, dissatisfied',7:'Job leavers, retired',8:'Job leavers, business sold or closed down (self-employed)',9:'Job losers, end of seasonal job (employee)',10:'Job losers, end of temporary or casual (employee)',11:'Job losers, company moved or out of business (employee)',12:'Job losers, business conditions (employee)',13:'Job losers, dismissal or other reasons'}</t>
-  </si>
-  <si>
-    <t>PRIORACT:{0:'Other',1:'Working',2:'Managing a home',3:'Going to school'}</t>
-  </si>
-  <si>
-    <t>YNOLOOK:{0:'Wanted work, reason - other',1:'Wanted work, reason - own illness or disability',2:'Wanted work, reason - caring for children',3:'Wanted work, reason - other personal or family responsibilities',4:'Wanted work, reason - school',5:'Wanted work, reason - awaiting recall or reply',6:'Wanted work, reason - discouraged'}</t>
-  </si>
-  <si>
-    <t>SCHOOLN:{1:'Non-student',2:'Full-time student',3:'Part-time student'}</t>
-  </si>
-  <si>
-    <t>EFAMTYPE:{1:'Person not in an economic family',2:'Dual-earner couple, no children or none under 25',3:'Dual-earner couple, youngest child 0 to 17',4:'Dual-earner couple, youngest child 18 to 24',5:'Single-earner couple, male employed, no children or none under 25',6:'Single-earner couple, male employed, youngest child 0 to 17',7:'Single-earner couple, male employed, youngest child 18 to 24',8:'Single-earner couple, female employed, no children or none under 25',9:'Single-earner couple, female employed, youngest child 0 to 17',10:'Single-earner couple, female employed, youngest child 18 to 24',11:'Non-earner couple, no children or none under 25',12:'Non-earner couple, youngest child 0 to 17',13:'Non-earner couple, youngest child 18 to 24',14:'Lone-parent family, parent employed, youngest child 0 to 17',15:'Lone-parent family, parent employed, youngest child 18 to 24',16:'Lone-parent family, parent not employed, youngest child 0 to 17',17:'Lone-parent family, parent not employed, youngest child 18 to 24',18:'Other families'}</t>
-  </si>
-  <si>
-    <t>AGYOWNK:{1:'Youngest child less than 6 years',2:'Youngest child 6 to 12 years',3:'Youngest child 13 to 17 years',4:'Youngest child 18 to 24 years'}</t>
-  </si>
-  <si>
-    <t>FTPTLAST:{1:'Full-time (30 hours or more)',2:'Part-time (1 to 29 hours)'}</t>
-  </si>
-  <si>
-    <t>MJH:{1:'Single jobholder, including job changers',2:'Multiple jobholder'}</t>
+    <t>'SURVMNTH':{1:'January',2:'February',3:'March',4:'April',5:'May',6:'June',7:'July',8:'August',9:'September',10:'October',11:'November',12:'December'}</t>
+  </si>
+  <si>
+    <t>'LFSSTAT':{1:'Employed, at work',2:'Employed, absent from work',3:'Unemployed',4:'Not in labour force'}</t>
+  </si>
+  <si>
+    <t>'PROV':{10:'Newfoundland and Labrador',11:'Prince Edward Island',12:'Nova Scotia',13:'New Brunswick',24:'Quebec',35:'Ontario',46:'Manitoba',47:'Saskatchewan',48:'Alberta',59:'British Columbia'}</t>
+  </si>
+  <si>
+    <t>'CMA':{1:'QuÈbec',2:'MontrÈal',3:'OttawañGatineau (Ontario part)',4:'Toronto',5:'Hamilton',6:'Winnipeg',7:'Calgary',8:'Edmonton',9:'Vancouver',0:'Other CMA or non-CMA'}</t>
+  </si>
+  <si>
+    <t>'AGE_12':{1:'15 to 19 years',2:'20 to 24 years',3:'25 to 29 years',4:'30 to 34 years',5:'35 to 39 years',6:'40 to 44 years',7:'45 to 49 years',8:'50 to 54 years',9:'55 to 59 years',10:'60 to 64 years',11:'65 to 69 years',12:'70 and over'}</t>
+  </si>
+  <si>
+    <t>'AGE_6':{1:'15 to 16 years',2:'17 to 19 years',3:'20 to 21 years',4:'22 to 24 years',5:'25 to 26 years',6:'27 to 29 years',blank:'Not applicable'}</t>
+  </si>
+  <si>
+    <t>'SEX':{1:'Male',2:'Female'}</t>
+  </si>
+  <si>
+    <t>'MARSTAT':{1:'Married',2:'Living in common-law',3:'Widowed',4:'Separated',5:'Divorced',6:'Single, never married'}</t>
+  </si>
+  <si>
+    <t>'EDUC':{0:'0 to 8 years',1:'Some high school',2:'High school graduate',3:'Some postsecondary',4:'Postsecondary certificate or diploma',5:'Bachelor's degree',6:'Above bachelor's degree'}</t>
+  </si>
+  <si>
+    <t>'MJH':{1:'Single jobholder, including job changers',2:'Multiple jobholder'}</t>
+  </si>
+  <si>
+    <t>'EVERWORK':{1:'Yes, within last year',2:'Yes, more than 1 year ago',3:'No, never worked'}</t>
+  </si>
+  <si>
+    <t>'FTPTLAST':{1:'Full-time (30 hours or more)',2:'Part-time (1 to 29 hours)'}</t>
+  </si>
+  <si>
+    <t>'COWMAIN':{1:'Public sector employees',2:'Private sector employees',3:'Self-employed incorporated, with paid help',4:'Self-employed incorporated, no paid help',5:'Self-employed unincorporated, with paid help',6:'Self-employed unincorporated, no paid help',7:'Unpaid family worker'}</t>
+  </si>
+  <si>
+    <t>'IMMIG':{1:'Immigrant, landed 10 or less years earlier',2:'Immigrant, landed more than 10 years earlier',3:'Non-immigrant'}</t>
+  </si>
+  <si>
+    <t>'NAICS_21':{1:'Agriculture',2:'Forestry and logging and support activities for forestry',3:'Fishing, hunting and trapping',4:'Mining, quarrying, and oil and gas extraction',5:'Utilities',6:'Construction',7:'Manufacturing - durable goods',8:'Manufacturing - non-durable goods',9:'Wholesale trade',10:'Retail trade',11:'Transportation and warehousing',12:'Finance and insurance',13:'Real estate and rental and leasing',14:'Professional, scientific and technical services',15:'Business, building and other support services',16:'Educational services',17:'Health care and social assistance',18:'Information, culture and recreation',19:'Accommodation and food services',20:'Other services (except public administration)',21:'Public administration',blank:'Not applicable'}</t>
+  </si>
+  <si>
+    <t>'NOC_10':{1:'Management occupations',2:'Business, finance and administration occupations, except management',3:'Natural and applied sciences and related occupations, except management',4:'Health occupations, except management',5:'Occupations in education, law and social, community and government services, except management',6:'Occupations in art, culture, recreation and sport, except management',7:'Sales and service occupations, except management',8:'Trades, transport and equipment operators and related occupations, except management',9:'Natural resources, agriculture and related production occupations, except management',10:'Occupations in manufacturing and utilities, except management',blank:'Not applicable'}</t>
+  </si>
+  <si>
+    <t>'NOC_43':{1:'Legislative and senior management occupations',2:'Specialized middle management occupations',3:'Middle management occupations in retail and wholesale trade and customer services',4:'Middle management occupations in trades, transportation, production and utilities',5:'Professional occupations in finance',6:'Professional occupations in business',7:'Administrative and financial supervisors and specialized administrative occupations',8:'Administrative occupations and transportation logistics occupations',9:'Administrative and financial support and supply chain logistics occupations',10:'Professional occupations in natural sciences',11:'Professional occupations in applied sciences (except engineering)',12:'Professional occupations in engineering',13:'Technical occupations related to natural and applied sciences',14:'Health treating and consultation services professionals',15:'Therapy and assessment professionals',16:'Nursing and allied health professionals',17:'Technical occupations in health',18:'Assisting occupations in support of health services',19:'Professional occupations in law',20:'Professional occupations in education services',21:'Professional occupations in social and community services',22:'Professional occupations in government services',23:'Occupations in front-line public protection services',24:'Paraprofessional occupations in legal, social, community and education services',25:'Assisting occupations in education and in legal and public protection',26:'Care providers and public protection support occupations and student monitors, crossing guards and related occupations',27:'Professional occupations in art and culture',28:'Technical occupations in art, culture and sport',29:'Occupations in art, culture and sport',30:'Support occupations in art, culture and sport',31:'Retail sales and service supervisors and specialized occupations in sales and services',32:'Occupations in sales and services',33:'Sales and service representatives and other customer and personal services occupations',34:'Sales and service support occupations',35:'Technical trades and transportation officers and controllers',36:'General trades',37:'Mail and message distribution, other transport equipment operators and related maintenance workers',38:'Helpers and labourers and other transport drivers, operators and labourers',39:'Supervisors and occupations in natural resources, agriculture and related production',40:'Workers and labourers in natural resources, agriculture and related production',41:'Supervisors, central control and process operators in processing, manufacturing and utilities and aircraft assemblers and inspectors',42:'Machine operators, assemblers and inspectors in processing, manufacturing and printing',43:'Labourers in processing, manufacturing and utilities',blank:'Not applicable'}</t>
+  </si>
+  <si>
+    <t>'YABSENT':{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation',blank:'Not applicable'}</t>
+  </si>
+  <si>
+    <t>'PAYAWAY':{1:'Yes',2:'No'}</t>
+  </si>
+  <si>
+    <t>'FTPTMAIN':{1:'Full-time',2:'Part-time'}</t>
+  </si>
+  <si>
+    <t>'YAWAY':{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation or civic holiday',4:'Working short-time'}</t>
+  </si>
+  <si>
+    <t>'WHYPT':{0:'Other reasons',1:'Own illness or disability',2:'Caring for children',3:'Other personal or family responsibilities',4:'Going to school',5:'Personal preference',6:'Business conditions or could not find full-time work, looked for full-time work in last month',7:'Business conditions or could not find full-time work, did not look for full-time work in last month'}</t>
+  </si>
+  <si>
+    <t>'UNION':{1:'Union member',2:'Not a member but covered by a union contract or collective agreement',3:'Non-unionized'}</t>
+  </si>
+  <si>
+    <t>'PERMTEMP':{1:'Permanent',2:'Temporary, seasonal job',3:'Temporary, term or contract job',4:'Temporary, casual or other temporary jobs'}</t>
+  </si>
+  <si>
+    <t>'ESTSIZE':{1:'Less than 20 employees',2:'20 to 99 employees',3:'100 to 500 employees',4:'More than 500 employees'}</t>
+  </si>
+  <si>
+    <t>'FIRMSIZE':{1:'Less than 20 employees',2:'20 to 99 employees',3:'100 to 500 employees',4:'More than 500 employees'}</t>
+  </si>
+  <si>
+    <t>'FLOWUNEM':{1:'Job losers, temporary layoff',2:'Job losers, permanent layoff',3:'Job leavers',4:'Job leavers/losers (status unknown), worked more than 1 year ago ',5:'New entrants',6:'Re-entrants, worked 1 year ago or less',7:'Re-entrants, worked more than 1 year ago',8:'Future starts'}</t>
+  </si>
+  <si>
+    <t>'UNEMFTPT':{1:'Full-time',2:'Part-time',3:'Future starts'}</t>
+  </si>
+  <si>
+    <t>'WHYLEFTO':{0:'Job leavers, other reasons',1:'Job leavers, own illness or disability',2:'Job leavers, personal or family responsibilities',3:'Job leavers, going to school',4:'Job losers, laid off',5:'Job leavers, retired'}</t>
+  </si>
+  <si>
+    <t>'WHYLEFTN':{0:'Job leavers, other reasons',1:'Job leavers, own illness or disability',2:'Job leavers, caring for children',3:'Job leavers, pregnancy',4:'Job leavers, personal or family responsibilities',5:'Job leavers, going to school',6:'Job leavers, dissatisfied',7:'Job leavers, retired',8:'Job leavers, business sold or closed down (self-employed)',9:'Job losers, end of seasonal job (employee)',10:'Job losers, end of temporary or casual (employee)',11:'Job losers, company moved or out of business (employee)',12:'Job losers, business conditions (employee)',13:'Job losers, dismissal or other reasons'}</t>
+  </si>
+  <si>
+    <t>'PRIORACT':{0:'Other',1:'Working',2:'Managing a home',3:'Going to school'}</t>
+  </si>
+  <si>
+    <t>'YNOLOOK':{0:'Wanted work, reason - other',1:'Wanted work, reason - own illness or disability',2:'Wanted work, reason - caring for children',3:'Wanted work, reason - other personal or family responsibilities',4:'Wanted work, reason - school',5:'Wanted work, reason - awaiting recall or reply',6:'Wanted work, reason - discouraged'}</t>
+  </si>
+  <si>
+    <t>'SCHOOLN':{1:'Non-student',2:'Full-time student',3:'Part-time student'}</t>
+  </si>
+  <si>
+    <t>'EFAMTYPE':{1:'Person not in an economic family',2:'Dual-earner couple, no children or none under 25',3:'Dual-earner couple, youngest child 0 to 17',4:'Dual-earner couple, youngest child 18 to 24',5:'Single-earner couple, male employed, no children or none under 25',6:'Single-earner couple, male employed, youngest child 0 to 17',7:'Single-earner couple, male employed, youngest child 18 to 24',8:'Single-earner couple, female employed, no children or none under 25',9:'Single-earner couple, female employed, youngest child 0 to 17',10:'Single-earner couple, female employed, youngest child 18 to 24',11:'Non-earner couple, no children or none under 25',12:'Non-earner couple, youngest child 0 to 17',13:'Non-earner couple, youngest child 18 to 24',14:'Lone-parent family, parent employed, youngest child 0 to 17',15:'Lone-parent family, parent employed, youngest child 18 to 24',16:'Lone-parent family, parent not employed, youngest child 0 to 17',17:'Lone-parent family, parent not employed, youngest child 18 to 24',18:'Other families'}</t>
+  </si>
+  <si>
+    <t>'AGYOWNK':{1:'Youngest child less than 6 years',2:'Youngest child 6 to 12 years',3:'Youngest child 13 to 17 years',4:'Youngest child 18 to 24 years'}</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,132 +555,132 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/2024-07-CSV/column_map.xlsx
+++ b/data/2024-07-CSV/column_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psyc/Downloads/2024-07-CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FA8CEE-5D23-634D-8493-3E3C3C3A0658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07583C92-BED2-5C4D-B9A2-20B0BF334B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{F440BF37-DC75-994C-8DD2-6315E2DB5A1B}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>'AGE_12':{1:'15 to 19 years',2:'20 to 24 years',3:'25 to 29 years',4:'30 to 34 years',5:'35 to 39 years',6:'40 to 44 years',7:'45 to 49 years',8:'50 to 54 years',9:'55 to 59 years',10:'60 to 64 years',11:'65 to 69 years',12:'70 and over'}</t>
   </si>
   <si>
-    <t>'AGE_6':{1:'15 to 16 years',2:'17 to 19 years',3:'20 to 21 years',4:'22 to 24 years',5:'25 to 26 years',6:'27 to 29 years',blank:'Not applicable'}</t>
-  </si>
-  <si>
     <t>'SEX':{1:'Male',2:'Female'}</t>
   </si>
   <si>
@@ -83,18 +80,6 @@
     <t>'IMMIG':{1:'Immigrant, landed 10 or less years earlier',2:'Immigrant, landed more than 10 years earlier',3:'Non-immigrant'}</t>
   </si>
   <si>
-    <t>'NAICS_21':{1:'Agriculture',2:'Forestry and logging and support activities for forestry',3:'Fishing, hunting and trapping',4:'Mining, quarrying, and oil and gas extraction',5:'Utilities',6:'Construction',7:'Manufacturing - durable goods',8:'Manufacturing - non-durable goods',9:'Wholesale trade',10:'Retail trade',11:'Transportation and warehousing',12:'Finance and insurance',13:'Real estate and rental and leasing',14:'Professional, scientific and technical services',15:'Business, building and other support services',16:'Educational services',17:'Health care and social assistance',18:'Information, culture and recreation',19:'Accommodation and food services',20:'Other services (except public administration)',21:'Public administration',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>'NOC_10':{1:'Management occupations',2:'Business, finance and administration occupations, except management',3:'Natural and applied sciences and related occupations, except management',4:'Health occupations, except management',5:'Occupations in education, law and social, community and government services, except management',6:'Occupations in art, culture, recreation and sport, except management',7:'Sales and service occupations, except management',8:'Trades, transport and equipment operators and related occupations, except management',9:'Natural resources, agriculture and related production occupations, except management',10:'Occupations in manufacturing and utilities, except management',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>'NOC_43':{1:'Legislative and senior management occupations',2:'Specialized middle management occupations',3:'Middle management occupations in retail and wholesale trade and customer services',4:'Middle management occupations in trades, transportation, production and utilities',5:'Professional occupations in finance',6:'Professional occupations in business',7:'Administrative and financial supervisors and specialized administrative occupations',8:'Administrative occupations and transportation logistics occupations',9:'Administrative and financial support and supply chain logistics occupations',10:'Professional occupations in natural sciences',11:'Professional occupations in applied sciences (except engineering)',12:'Professional occupations in engineering',13:'Technical occupations related to natural and applied sciences',14:'Health treating and consultation services professionals',15:'Therapy and assessment professionals',16:'Nursing and allied health professionals',17:'Technical occupations in health',18:'Assisting occupations in support of health services',19:'Professional occupations in law',20:'Professional occupations in education services',21:'Professional occupations in social and community services',22:'Professional occupations in government services',23:'Occupations in front-line public protection services',24:'Paraprofessional occupations in legal, social, community and education services',25:'Assisting occupations in education and in legal and public protection',26:'Care providers and public protection support occupations and student monitors, crossing guards and related occupations',27:'Professional occupations in art and culture',28:'Technical occupations in art, culture and sport',29:'Occupations in art, culture and sport',30:'Support occupations in art, culture and sport',31:'Retail sales and service supervisors and specialized occupations in sales and services',32:'Occupations in sales and services',33:'Sales and service representatives and other customer and personal services occupations',34:'Sales and service support occupations',35:'Technical trades and transportation officers and controllers',36:'General trades',37:'Mail and message distribution, other transport equipment operators and related maintenance workers',38:'Helpers and labourers and other transport drivers, operators and labourers',39:'Supervisors and occupations in natural resources, agriculture and related production',40:'Workers and labourers in natural resources, agriculture and related production',41:'Supervisors, central control and process operators in processing, manufacturing and utilities and aircraft assemblers and inspectors',42:'Machine operators, assemblers and inspectors in processing, manufacturing and printing',43:'Labourers in processing, manufacturing and utilities',blank:'Not applicable'}</t>
-  </si>
-  <si>
-    <t>'YABSENT':{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation',blank:'Not applicable'}</t>
-  </si>
-  <si>
     <t>'PAYAWAY':{1:'Yes',2:'No'}</t>
   </si>
   <si>
@@ -144,6 +129,21 @@
   </si>
   <si>
     <t>'AGYOWNK':{1:'Youngest child less than 6 years',2:'Youngest child 6 to 12 years',3:'Youngest child 13 to 17 years',4:'Youngest child 18 to 24 years'}</t>
+  </si>
+  <si>
+    <t>'AGE_6':{1:'15 to 16 years',2:'17 to 19 years',3:'20 to 21 years',4:'22 to 24 years',5:'25 to 26 years',6:'27 to 29 years'}</t>
+  </si>
+  <si>
+    <t>'NAICS_21':{1:'Agriculture',2:'Forestry and logging and support activities for forestry',3:'Fishing, hunting and trapping',4:'Mining, quarrying, and oil and gas extraction',5:'Utilities',6:'Construction',7:'Manufacturing - durable goods',8:'Manufacturing - non-durable goods',9:'Wholesale trade',10:'Retail trade',11:'Transportation and warehousing',12:'Finance and insurance',13:'Real estate and rental and leasing',14:'Professional, scientific and technical services',15:'Business, building and other support services',16:'Educational services',17:'Health care and social assistance',18:'Information, culture and recreation',19:'Accommodation and food services',20:'Other services (except public administration)',21:'Public administration'}</t>
+  </si>
+  <si>
+    <t>'NOC_10':{1:'Management occupations',2:'Business, finance and administration occupations, except management',3:'Natural and applied sciences and related occupations, except management',4:'Health occupations, except management',5:'Occupations in education, law and social, community and government services, except management',6:'Occupations in art, culture, recreation and sport, except management',7:'Sales and service occupations, except management',8:'Trades, transport and equipment operators and related occupations, except management',9:'Natural resources, agriculture and related production occupations, except management',10:'Occupations in manufacturing and utilities, except management'}</t>
+  </si>
+  <si>
+    <t>'NOC_43':{1:'Legislative and senior management occupations',2:'Specialized middle management occupations',3:'Middle management occupations in retail and wholesale trade and customer services',4:'Middle management occupations in trades, transportation, production and utilities',5:'Professional occupations in finance',6:'Professional occupations in business',7:'Administrative and financial supervisors and specialized administrative occupations',8:'Administrative occupations and transportation logistics occupations',9:'Administrative and financial support and supply chain logistics occupations',10:'Professional occupations in natural sciences',11:'Professional occupations in applied sciences (except engineering)',12:'Professional occupations in engineering',13:'Technical occupations related to natural and applied sciences',14:'Health treating and consultation services professionals',15:'Therapy and assessment professionals',16:'Nursing and allied health professionals',17:'Technical occupations in health',18:'Assisting occupations in support of health services',19:'Professional occupations in law',20:'Professional occupations in education services',21:'Professional occupations in social and community services',22:'Professional occupations in government services',23:'Occupations in front-line public protection services',24:'Paraprofessional occupations in legal, social, community and education services',25:'Assisting occupations in education and in legal and public protection',26:'Care providers and public protection support occupations and student monitors, crossing guards and related occupations',27:'Professional occupations in art and culture',28:'Technical occupations in art, culture and sport',29:'Occupations in art, culture and sport',30:'Support occupations in art, culture and sport',31:'Retail sales and service supervisors and specialized occupations in sales and services',32:'Occupations in sales and services',33:'Sales and service representatives and other customer and personal services occupations',34:'Sales and service support occupations',35:'Technical trades and transportation officers and controllers',36:'General trades',37:'Mail and message distribution, other transport equipment operators and related maintenance workers',38:'Helpers and labourers and other transport drivers, operators and labourers',39:'Supervisors and occupations in natural resources, agriculture and related production',40:'Workers and labourers in natural resources, agriculture and related production',41:'Supervisors, central control and process operators in processing, manufacturing and utilities and aircraft assemblers and inspectors',42:'Machine operators, assemblers and inspectors in processing, manufacturing and printing',43:'Labourers in processing, manufacturing and utilities'}</t>
+  </si>
+  <si>
+    <t>'YABSENT':{0:'Other reasons',1:'Own illness or disability',2:'Personal or family responsibilities',3:'Vacation'}</t>
   </si>
 </sst>
 </file>
@@ -535,152 +535,152 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
